--- a/src/main/java/TestData/UserData.xlsx
+++ b/src/main/java/TestData/UserData.xlsx
@@ -25,10 +25,10 @@
     <t>email</t>
   </si>
   <si>
-    <t>jerr12rrrr53@gmail.com</t>
+    <t>jerr151</t>
   </si>
   <si>
-    <t>jerr151</t>
+    <t>jerr12rrrr535a@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -389,7 +389,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -409,10 +409,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/TestData/UserData.xlsx
+++ b/src/main/java/TestData/UserData.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2430" windowWidth="14180" windowHeight="6240"/>
+    <workbookView xWindow="0" yWindow="2430" windowWidth="14180" windowHeight="6240" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Users1" sheetId="2" r:id="rId2"/>
+    <sheet name="Users2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:J7"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t xml:space="preserve">name </t>
   </si>
@@ -28,7 +28,28 @@
     <t>jerr151</t>
   </si>
   <si>
-    <t>jerr12rrrr535a@gmail.com</t>
+    <t>emailaddress</t>
+  </si>
+  <si>
+    <t>passordsecurity</t>
+  </si>
+  <si>
+    <t>Jerry@3333</t>
+  </si>
+  <si>
+    <t>addresscandidate</t>
+  </si>
+  <si>
+    <t>phonenumbercandidate</t>
+  </si>
+  <si>
+    <t>btm</t>
+  </si>
+  <si>
+    <t>enim1112.diam990a@google.org</t>
+  </si>
+  <si>
+    <t>9098990088</t>
   </si>
 </sst>
 </file>
@@ -388,8 +409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -412,7 +433,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -426,24 +447,78 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="33.453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.90625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="29.54296875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.453125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>